--- a/data/trans_camb/P25_N_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_N_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,27</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,67</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-9,12</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 8,33</t>
+          <t>-34,21; 25,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 12,17</t>
+          <t>-35,28; 28,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 3,96</t>
+          <t>-38,52; 32,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 19,52</t>
+          <t>-18,15; 15,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,57; 2,65</t>
+          <t>-22,55; 15,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 14,41</t>
+          <t>-8,35; 23,61</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-22,55; 16,7</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-23,11; 17,83</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-20,12; 25,53</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,4%</t>
+          <t>-11,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,09%</t>
+          <t>-6,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>-2,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,49%</t>
+          <t>-5,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-5,59%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,04%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,61; 17,95</t>
+          <t>-57,74; 73,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,99; 25,73</t>
+          <t>-59,66; 84,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 5,32</t>
+          <t>-65,64; 93,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 30,87</t>
+          <t>-22,82; 25,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,81; 3,03</t>
+          <t>-28,18; 23,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 25,83</t>
+          <t>-10,23; 39,5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-33,18; 33,82</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-34,74; 35,26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-29,77; 52,52</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-5,12</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 7,19</t>
+          <t>-14,2; 7,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 6,37</t>
+          <t>-16,88; 5,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 5,09</t>
+          <t>-8,19; 14,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 8,25</t>
+          <t>-13,62; 7,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 3,71</t>
+          <t>-12,98; 7,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 4,25</t>
+          <t>-7,72; 13,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-12,22; 3,92</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-13,21; 3,31</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 10,96</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>-10,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,11%</t>
+          <t>-18,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>-7,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,35%</t>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-9,34%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-12,2%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 32,74</t>
+          <t>-37,13; 30,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 29,31</t>
+          <t>-44,34; 19,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 10,96</t>
+          <t>-22,31; 59,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 18,09</t>
+          <t>-24,4; 15,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 10,34</t>
+          <t>-22,83; 16,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 12,2</t>
+          <t>-13,44; 31,04</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-26,29; 10,47</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-28,97; 8,84</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-13,48; 29,26</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>5,76</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 3,82</t>
+          <t>-16,17; 8,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 7,93</t>
+          <t>-15,91; 10,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 9,27</t>
+          <t>-9,61; 16,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 6,37</t>
+          <t>-11,16; 8,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 4,47</t>
+          <t>-12,99; 7,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 4,41</t>
+          <t>-5,22; 15,88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 5,72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; 5,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 12,83</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,87%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>-5,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,19%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,22%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>16,99%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-7,7%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-5,67%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 13,61</t>
+          <t>-39,38; 31,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,59; 29,84</t>
+          <t>-37,52; 39,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 28,55</t>
+          <t>-22,72; 57,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 19,8</t>
+          <t>-29,08; 29,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 14,84</t>
+          <t>-32,33; 28,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 14,05</t>
+          <t>-13,37; 55,83</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-26,39; 19,54</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-25,77; 20,16</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-8,4; 42,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 2,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 2,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 2,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 0,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 4,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 8,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 9,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 6,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 16,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 1,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 10,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,91</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,13</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-2,16</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,36</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,45</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-11,64; 4,15</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-12,69; 3,24</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 11,62</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-9,03; 4,83</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 5,56</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 14,35</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 2,0</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 2,4</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 11,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-11,21%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-11,85%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-5,42%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-4,59%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-8,11%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-29,76; 13,67</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-32,19; 9,97</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-15,66; 36,41</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-18,23; 10,99</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-17,55; 12,58</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 32,87</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,87; 5,31</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-19,3; 6,3</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 28,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
